--- a/assets/projects.xlsx
+++ b/assets/projects.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="371">
   <si>
     <t>projectID</t>
   </si>
@@ -1129,31 +1132,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1165,8 +1164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -1180,146 +1178,162 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="19">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office Theme">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="A7A7A7"/>
@@ -1349,22 +1363,82 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="FF00FF"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office Theme">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office Theme">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1385,50 +1459,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="129999"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1438,7 +1515,16 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1447,21 +1533,23 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1485,7 +1573,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -1498,13 +1586,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -1516,4006 +1603,3139 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:noAutofit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:lnDef>
-    <a:txDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:txDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" style="15" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="5">
         <v>101007322</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>21707010</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="8">
         <v>6548524.39</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s" s="4">
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="J2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="6">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="10">
         <v>871394</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="12">
         <v>499478.75</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="12">
         <v>499478.75</v>
       </c>
-      <c r="G3" t="s" s="7">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s" s="7">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="I3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s" s="7">
+      <c r="J3" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="6">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="10">
         <v>783221</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="12">
         <v>26568727.39</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="12">
         <v>8191947.64</v>
       </c>
-      <c r="G4" t="s" s="7">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s" s="7">
+      <c r="H4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s" s="7">
+      <c r="J4" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="6">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="10">
         <v>692470</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <v>18444623.25</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="12">
         <v>5895046.33</v>
       </c>
-      <c r="G5" t="s" s="7">
+      <c r="G5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s" s="7">
+      <c r="H5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s" s="7">
+      <c r="J5" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="10">
         <v>662222</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="12">
         <v>26802872.75</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="12">
         <v>8575964.15</v>
       </c>
-      <c r="G6" t="s" s="7">
+      <c r="G6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s" s="7">
+      <c r="H6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J6" t="s" s="7">
+      <c r="J6" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="6">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="10">
         <v>830845</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="12">
         <v>499928.75</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="12">
         <v>499928.75</v>
       </c>
-      <c r="G7" t="s" s="7">
+      <c r="G7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H7" t="s" s="7">
+      <c r="H7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I7" t="s" s="7">
+      <c r="I7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J7" t="s" s="7">
+      <c r="J7" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="6">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="10">
         <v>692449</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="12">
         <v>14312279.65</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="12">
         <v>4221232.63</v>
       </c>
-      <c r="G8" t="s" s="7">
+      <c r="G8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H8" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s" s="7">
+      <c r="H8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J8" t="s" s="7">
+      <c r="J8" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="6">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="10">
         <v>737459</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="D9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="12">
         <v>106445748.55</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="12">
         <v>26033148.48</v>
       </c>
-      <c r="G9" t="s" s="7">
+      <c r="G9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H9" t="s" s="7">
+      <c r="H9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I9" t="s" s="7">
+      <c r="I9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J9" t="s" s="7">
+      <c r="J9" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="6">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="10">
         <v>692455</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s" s="7">
+      <c r="D10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="12">
         <v>63381009.78</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="12">
         <v>15896355.31</v>
       </c>
-      <c r="G10" t="s" s="7">
+      <c r="G10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H10" t="s" s="7">
+      <c r="H10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I10" t="s" s="7">
+      <c r="I10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J10" t="s" s="7">
+      <c r="J10" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="6">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="10">
         <v>662189</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s" s="7">
+      <c r="C11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s" s="7">
+      <c r="D11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="12">
         <v>29984905.83</v>
       </c>
-      <c r="F11" s="8">
-        <v>9791974.050000001</v>
-      </c>
-      <c r="G11" t="s" s="7">
+      <c r="F11" s="12">
+        <v>9791974.05</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s" s="7">
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J11" t="s" s="7">
+      <c r="J11" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="6">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="10">
         <v>783132</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C12" t="s" s="7">
+      <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D12" t="s" s="7">
+      <c r="D12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="12">
         <v>40947272.06</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="12">
         <v>10418998.22</v>
       </c>
-      <c r="G12" t="s" s="7">
+      <c r="G12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H12" t="s" s="7">
+      <c r="H12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I12" t="s" s="7">
+      <c r="I12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J12" t="s" s="7">
+      <c r="J12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="6">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="10">
         <v>876190</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s" s="7">
+      <c r="C13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s" s="7">
+      <c r="D13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="12">
         <v>65631458.96</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="12">
         <v>16884696.28</v>
       </c>
-      <c r="G13" t="s" s="7">
+      <c r="G13" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H13" t="s" s="7">
+      <c r="H13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I13" t="s" s="7">
+      <c r="I13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J13" t="s" s="7">
+      <c r="J13" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="6">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="10">
         <v>101007260</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C14" t="s" s="7">
+      <c r="C14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D14" t="s" s="7">
+      <c r="D14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="12">
         <v>26544588.75</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="12">
         <v>6904533.33</v>
       </c>
-      <c r="G14" t="s" s="7">
+      <c r="G14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H14" t="s" s="7">
+      <c r="H14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I14" t="s" s="7">
+      <c r="I14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J14" t="s" s="7">
+      <c r="J14" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="6">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="10">
         <v>876038</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D15" t="s" s="7">
+      <c r="D15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="12">
         <v>44131847.56</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="12">
         <v>11292392.62</v>
       </c>
-      <c r="G15" t="s" s="7">
+      <c r="G15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H15" t="s" s="7">
+      <c r="H15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I15" t="s" s="7">
+      <c r="I15" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J15" t="s" s="7">
+      <c r="J15" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="6">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="10">
         <v>662155</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="C16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D16" t="s" s="7">
+      <c r="D16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="12">
         <v>47773600.41</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="12">
         <v>11249720.51</v>
       </c>
-      <c r="G16" t="s" s="7">
+      <c r="G16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H16" t="s" s="7">
+      <c r="H16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I16" t="s" s="7">
+      <c r="I16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J16" t="s" s="7">
+      <c r="J16" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="6">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="10">
         <v>737422</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C17" t="s" s="7">
+      <c r="C17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D17" t="s" s="7">
+      <c r="D17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="12">
         <v>38792404.47</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="12">
         <v>10227963.65</v>
       </c>
-      <c r="G17" t="s" s="7">
+      <c r="G17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H17" t="s" s="7">
+      <c r="H17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I17" t="s" s="7">
+      <c r="I17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J17" t="s" s="7">
+      <c r="J17" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="6">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="10">
         <v>737494</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C18" t="s" s="7">
+      <c r="C18" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D18" t="s" s="7">
+      <c r="D18" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="12">
         <v>14946579.22</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="12">
         <v>4442949.15</v>
       </c>
-      <c r="G18" t="s" s="7">
+      <c r="G18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H18" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s" s="7">
+      <c r="H18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J18" t="s" s="7">
+      <c r="J18" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="6">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="10">
         <v>692465</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s" s="7">
+      <c r="C19" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D19" t="s" s="7">
+      <c r="D19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="14">
         <v>8922406</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="12">
         <v>2679293.26</v>
       </c>
-      <c r="G19" t="s" s="7">
+      <c r="G19" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H19" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I19" t="s" s="7">
+      <c r="H19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J19" t="s" s="7">
+      <c r="J19" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="6">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="10">
         <v>662192</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C20" t="s" s="7">
+      <c r="C20" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D20" t="s" s="7">
+      <c r="D20" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="12">
         <v>52401675.84</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="12">
         <v>17320843.96</v>
       </c>
-      <c r="G20" t="s" s="7">
+      <c r="G20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H20" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s" s="7">
+      <c r="H20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J20" t="s" s="7">
+      <c r="J20" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="6">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="10">
         <v>783190</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C21" t="s" s="7">
+      <c r="C21" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D21" t="s" s="7">
+      <c r="D21" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="12">
         <v>50293730.79</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="12">
         <v>14368382.46</v>
       </c>
-      <c r="G21" t="s" s="7">
+      <c r="G21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H21" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s" s="7">
+      <c r="H21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J21" t="s" s="7">
+      <c r="J21" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="6">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="10">
         <v>661933</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C22" t="s" s="7">
+      <c r="C22" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D22" t="s" s="7">
+      <c r="D22" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="8">
-        <v>8690331.949999999</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="E22" s="12">
+        <v>8690331.95</v>
+      </c>
+      <c r="F22" s="12">
         <v>3348357.55</v>
       </c>
-      <c r="G22" t="s" s="7">
+      <c r="G22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H22" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s" s="7">
+      <c r="H22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J22" t="s" s="7">
+      <c r="J22" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="6">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="10">
         <v>737497</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C23" t="s" s="7">
+      <c r="C23" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D23" t="s" s="7">
+      <c r="D23" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="12">
         <v>29734972.5</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="12">
         <v>7203644.58</v>
       </c>
-      <c r="G23" t="s" s="7">
+      <c r="G23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H23" t="s" s="7">
+      <c r="H23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I23" t="s" s="7">
+      <c r="I23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="J23" t="s" s="7">
+      <c r="J23" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="6">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="10">
         <v>826653</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C24" t="s" s="7">
+      <c r="C24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D24" t="s" s="7">
+      <c r="D24" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="12">
         <v>37307279.46</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="12">
         <v>10914717.33</v>
       </c>
-      <c r="G24" t="s" s="7">
+      <c r="G24" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H24" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I24" t="s" s="7">
+      <c r="H24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="J24" t="s" s="7">
+      <c r="J24" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="6">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="10">
         <v>101007311</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s" s="7">
+      <c r="C25" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D25" t="s" s="7">
+      <c r="D25" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="12">
         <v>31051318.02</v>
       </c>
-      <c r="F25" s="8">
-        <v>9072996.630000001</v>
-      </c>
-      <c r="G25" t="s" s="7">
+      <c r="F25" s="12">
+        <v>9072996.63</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H25" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I25" t="s" s="7">
+      <c r="H25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="J25" t="s" s="7">
+      <c r="J25" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="6">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="10">
         <v>877056</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C26" t="s" s="7">
+      <c r="C26" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D26" t="s" s="7">
+      <c r="D26" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="12">
         <v>15727138.75</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="12">
         <v>4708841.69</v>
       </c>
-      <c r="G26" t="s" s="7">
+      <c r="G26" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H26" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I26" t="s" s="7">
+      <c r="H26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J26" t="s" s="7">
+      <c r="J26" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="6">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="13.550000000000002">
+      <c r="A27" s="10">
         <v>783119</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C27" t="s" s="7">
+      <c r="C27" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D27" t="s" s="7">
+      <c r="D27" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="12">
         <v>51074120.03</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="12">
         <v>14816246.3</v>
       </c>
-      <c r="G27" t="s" s="7">
+      <c r="G27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H27" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I27" t="s" s="7">
+      <c r="H27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="J27" t="s" s="7">
+      <c r="J27" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="6">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="13.550000000000002">
+      <c r="A28" s="10">
         <v>737469</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C28" t="s" s="7">
+      <c r="C28" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D28" t="s" s="7">
+      <c r="D28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="12">
         <v>64569691.44</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="12">
         <v>16163362.92</v>
       </c>
-      <c r="G28" t="s" s="7">
+      <c r="G28" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H28" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I28" t="s" s="7">
+      <c r="H28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="J28" t="s" s="7">
+      <c r="J28" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" s="6">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="13.550000000000002">
+      <c r="A29" s="10">
         <v>876487</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C29" t="s" s="7">
+      <c r="C29" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D29" t="s" s="7">
+      <c r="D29" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="12">
         <v>28707669.5</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="12">
         <v>8728813.49</v>
       </c>
-      <c r="G29" t="s" s="7">
+      <c r="G29" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H29" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I29" t="s" s="7">
+      <c r="H29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="J29" t="s" s="7">
+      <c r="J29" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" s="6">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="13.550000000000002">
+      <c r="A30" s="10">
         <v>101007321</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C30" t="s" s="7">
+      <c r="C30" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D30" t="s" s="7">
+      <c r="D30" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="8">
-        <v>99414764.73999999</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="E30" s="12">
+        <v>99414764.74</v>
+      </c>
+      <c r="F30" s="12">
         <v>24932343.21</v>
       </c>
-      <c r="G30" t="s" s="7">
+      <c r="G30" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H30" t="s" s="7">
+      <c r="H30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I30" t="s" s="7">
+      <c r="I30" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="J30" t="s" s="7">
+      <c r="J30" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" s="6">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="13.550000000000002">
+      <c r="A31" s="10">
         <v>783158</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C31" t="s" s="7">
+      <c r="C31" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D31" t="s" s="7">
+      <c r="D31" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="12">
         <v>49767672.5</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="12">
         <v>10401952.25</v>
       </c>
-      <c r="G31" t="s" s="7">
+      <c r="G31" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H31" t="s" s="7">
+      <c r="H31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I31" t="s" s="7">
+      <c r="I31" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="J31" t="s" s="7">
+      <c r="J31" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" s="6">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="13.550000000000002">
+      <c r="A32" s="10">
         <v>826060</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C32" t="s" s="7">
+      <c r="C32" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D32" t="s" s="7">
+      <c r="D32" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="14">
         <v>30062525</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="12">
         <v>8763190.67</v>
       </c>
-      <c r="G32" t="s" s="7">
+      <c r="G32" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H32" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I32" t="s" s="7">
+      <c r="H32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="J32" t="s" s="7">
+      <c r="J32" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" s="6">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="13.550000000000002">
+      <c r="A33" s="10">
         <v>826452</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C33" t="s" s="7">
+      <c r="C33" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D33" t="s" s="7">
+      <c r="D33" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="12">
         <v>90399888.88</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="12">
         <v>22714956.39</v>
       </c>
-      <c r="G33" t="s" s="7">
+      <c r="G33" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H33" t="s" s="7">
+      <c r="H33" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I33" t="s" s="7">
+      <c r="I33" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="J33" t="s" s="7">
+      <c r="J33" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" s="6">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="13.550000000000002">
+      <c r="A34" s="10">
         <v>737483</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C34" t="s" s="7">
+      <c r="C34" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D34" t="s" s="7">
+      <c r="D34" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="12">
         <v>27981714.14</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="12">
         <v>4121238.19</v>
       </c>
-      <c r="G34" t="s" s="7">
+      <c r="G34" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H34" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I34" t="s" s="7">
+      <c r="H34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J34" t="s" s="7">
+      <c r="J34" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" s="6">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="13.550000000000002">
+      <c r="A35" s="10">
         <v>876659</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C35" t="s" s="7">
+      <c r="C35" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D35" t="s" s="7">
+      <c r="D35" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="12">
         <v>101798216.75</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="12">
         <v>24565508.93</v>
       </c>
-      <c r="G35" t="s" s="7">
+      <c r="G35" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H35" t="s" s="7">
+      <c r="H35" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I35" t="s" s="7">
+      <c r="I35" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="J35" t="s" s="7">
+      <c r="J35" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" s="6">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="13.550000000000002">
+      <c r="A36" s="10">
         <v>737417</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C36" t="s" s="7">
+      <c r="C36" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D36" t="s" s="7">
+      <c r="D36" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="12">
         <v>180318047.5</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="12">
         <v>28046206.5</v>
       </c>
-      <c r="G36" t="s" s="7">
+      <c r="G36" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H36" t="s" s="7">
+      <c r="H36" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I36" t="s" s="7">
+      <c r="I36" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="J36" t="s" s="7">
+      <c r="J36" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" s="6">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="13.550000000000002">
+      <c r="A37" s="10">
         <v>101007247</v>
       </c>
-      <c r="B37" t="s" s="7">
+      <c r="B37" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C37" t="s" s="7">
+      <c r="C37" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D37" t="s" s="7">
+      <c r="D37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="12">
         <v>33986624.98</v>
       </c>
-      <c r="F37" s="8">
-        <v>8587255.470000001</v>
-      </c>
-      <c r="G37" t="s" s="7">
+      <c r="F37" s="12">
+        <v>8587255.47</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H37" t="s" s="7">
+      <c r="H37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I37" t="s" s="7">
+      <c r="I37" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J37" t="s" s="7">
+      <c r="J37" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" s="6">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="13.550000000000002">
+      <c r="A38" s="10">
         <v>876868</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="B38" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C38" t="s" s="7">
+      <c r="C38" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D38" t="s" s="7">
+      <c r="D38" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="12">
         <v>19575959.75</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="12">
         <v>5785389.68</v>
       </c>
-      <c r="G38" t="s" s="7">
+      <c r="G38" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H38" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I38" t="s" s="7">
+      <c r="H38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="J38" t="s" s="7">
+      <c r="J38" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" ht="13.55" customHeight="1">
-      <c r="A39" s="6">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="13.550000000000002">
+      <c r="A39" s="10">
         <v>876124</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="B39" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C39" t="s" s="7">
+      <c r="C39" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D39" t="s" s="7">
+      <c r="D39" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="12">
         <v>97448122.63</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="12">
         <v>24872351.55</v>
       </c>
-      <c r="G39" t="s" s="7">
+      <c r="G39" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H39" t="s" s="7">
+      <c r="H39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I39" t="s" s="7">
+      <c r="I39" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="J39" t="s" s="7">
+      <c r="J39" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" ht="13.55" customHeight="1">
-      <c r="A40" s="6">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="13.550000000000002">
+      <c r="A40" s="10">
         <v>101007229</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C40" t="s" s="7">
+      <c r="C40" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D40" t="s" s="7">
+      <c r="D40" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="12">
         <v>26998506.26</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="12">
         <v>7797661.5</v>
       </c>
-      <c r="G40" t="s" s="7">
+      <c r="G40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H40" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I40" t="s" s="7">
+      <c r="H40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="J40" t="s" s="7">
+      <c r="J40" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" ht="13.55" customHeight="1">
-      <c r="A41" s="6">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="13.550000000000002">
+      <c r="A41" s="10">
         <v>876019</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C41" t="s" s="7">
+      <c r="C41" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D41" t="s" s="7">
+      <c r="D41" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="14">
         <v>41445655</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="12">
         <v>11869482.47</v>
       </c>
-      <c r="G41" t="s" s="7">
+      <c r="G41" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H41" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s" s="7">
+      <c r="H41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="J41" t="s" s="7">
+      <c r="J41" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" ht="13.55" customHeight="1">
-      <c r="A42" s="6">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="13.550000000000002">
+      <c r="A42" s="10">
         <v>737434</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C42" t="s" s="7">
+      <c r="C42" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D42" t="s" s="7">
+      <c r="D42" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="12">
         <v>17351806.23</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="12">
         <v>5146307.14</v>
       </c>
-      <c r="G42" t="s" s="7">
+      <c r="G42" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H42" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I42" t="s" s="7">
+      <c r="H42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J42" t="s" s="7">
+      <c r="J42" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" ht="13.55" customHeight="1">
-      <c r="A43" s="6">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="13.550000000000002">
+      <c r="A43" s="10">
         <v>101007310</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C43" t="s" s="7">
+      <c r="C43" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D43" t="s" s="7">
+      <c r="D43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="12">
         <v>64021545.82</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="12">
         <v>15320914.36</v>
       </c>
-      <c r="G43" t="s" s="7">
+      <c r="G43" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H43" t="s" s="7">
+      <c r="H43" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I43" t="s" s="7">
+      <c r="I43" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="J43" t="s" s="7">
+      <c r="J43" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" ht="13.55" customHeight="1">
-      <c r="A44" s="6">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="13.550000000000002">
+      <c r="A44" s="10">
         <v>101007273</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B44" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C44" t="s" s="7">
+      <c r="C44" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D44" t="s" s="7">
+      <c r="D44" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="12">
         <v>32739483.75</v>
       </c>
-      <c r="F44" s="8">
-        <v>9815698.939999999</v>
-      </c>
-      <c r="G44" t="s" s="7">
+      <c r="F44" s="12">
+        <v>9815698.94</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H44" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I44" t="s" s="7">
+      <c r="H44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J44" t="s" s="7">
+      <c r="J44" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" ht="13.55" customHeight="1">
-      <c r="A45" s="6">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="13.550000000000002">
+      <c r="A45" s="10">
         <v>877539</v>
       </c>
-      <c r="B45" t="s" s="7">
+      <c r="B45" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C45" t="s" s="7">
+      <c r="C45" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D45" t="s" s="7">
+      <c r="D45" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="12">
         <v>13299823.34</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="12">
         <v>3839838.84</v>
       </c>
-      <c r="G45" t="s" s="7">
+      <c r="G45" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H45" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I45" t="s" s="7">
+      <c r="H45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="J45" t="s" s="7">
+      <c r="J45" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" ht="13.55" customHeight="1">
-      <c r="A46" s="6">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="13.550000000000002">
+      <c r="A46" s="10">
         <v>876362</v>
       </c>
-      <c r="B46" t="s" s="7">
+      <c r="B46" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C46" t="s" s="7">
+      <c r="C46" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D46" t="s" s="7">
+      <c r="D46" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="12">
         <v>28047232.5</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="12">
         <v>7306601.33</v>
       </c>
-      <c r="G46" t="s" s="7">
+      <c r="G46" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H46" t="s" s="7">
+      <c r="H46" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I46" t="s" s="7">
+      <c r="I46" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="J46" t="s" s="7">
+      <c r="J46" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" ht="13.55" customHeight="1">
-      <c r="A47" s="6">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="13.550000000000002">
+      <c r="A47" s="10">
         <v>826610</v>
       </c>
-      <c r="B47" t="s" s="7">
+      <c r="B47" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C47" t="s" s="7">
+      <c r="C47" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D47" t="s" s="7">
+      <c r="D47" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="12">
         <v>29391259.83</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="12">
         <v>7973441.62</v>
       </c>
-      <c r="G47" t="s" s="7">
+      <c r="G47" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H47" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I47" t="s" s="7">
+      <c r="H47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="J47" t="s" s="7">
+      <c r="J47" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" ht="13.55" customHeight="1">
-      <c r="A48" s="6">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="13.550000000000002">
+      <c r="A48" s="10">
         <v>101007319</v>
       </c>
-      <c r="B48" t="s" s="7">
+      <c r="B48" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C48" t="s" s="7">
+      <c r="C48" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D48" t="s" s="7">
+      <c r="D48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="12">
         <v>18021249.25</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="12">
         <v>5187309.15</v>
       </c>
-      <c r="G48" t="s" s="7">
+      <c r="G48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H48" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I48" t="s" s="7">
+      <c r="H48" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="J48" t="s" s="7">
+      <c r="J48" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" ht="13.55" customHeight="1">
-      <c r="A49" s="6">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="13.550000000000002">
+      <c r="A49" s="10">
         <v>692480</v>
       </c>
-      <c r="B49" t="s" s="7">
+      <c r="B49" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C49" t="s" s="7">
+      <c r="C49" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D49" t="s" s="7">
+      <c r="D49" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="12">
         <v>64237980.13</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="12">
         <v>14483029.61</v>
       </c>
-      <c r="G49" t="s" s="7">
+      <c r="G49" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H49" t="s" s="7">
+      <c r="H49" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I49" t="s" s="7">
+      <c r="I49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="J49" t="s" s="7">
+      <c r="J49" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" ht="13.55" customHeight="1">
-      <c r="A50" s="6">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="13.550000000000002">
+      <c r="A50" s="10">
         <v>826422</v>
       </c>
-      <c r="B50" t="s" s="7">
+      <c r="B50" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C50" t="s" s="7">
+      <c r="C50" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D50" t="s" s="7">
+      <c r="D50" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="14">
         <v>119239337</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="12">
         <v>26752414.79</v>
       </c>
-      <c r="G50" t="s" s="7">
+      <c r="G50" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H50" t="s" s="7">
+      <c r="H50" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I50" t="s" s="7">
+      <c r="I50" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="J50" t="s" s="7">
+      <c r="J50" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" ht="13.55" customHeight="1">
-      <c r="A51" s="6">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="13.550000000000002">
+      <c r="A51" s="10">
         <v>101007326</v>
       </c>
-      <c r="B51" t="s" s="7">
+      <c r="B51" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C51" t="s" s="7">
+      <c r="C51" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D51" t="s" s="7">
+      <c r="D51" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="12">
         <v>41748115.36</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="12">
         <v>11885320.55</v>
       </c>
-      <c r="G51" t="s" s="7">
+      <c r="G51" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H51" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I51" t="s" s="7">
+      <c r="H51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="J51" t="s" s="7">
+      <c r="J51" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" ht="13.55" customHeight="1">
-      <c r="A52" s="6">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="13.550000000000002">
+      <c r="A52" s="10">
         <v>737487</v>
       </c>
-      <c r="B52" t="s" s="7">
+      <c r="B52" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C52" t="s" s="7">
+      <c r="C52" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D52" t="s" s="7">
+      <c r="D52" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="12">
         <v>29040989.08</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="12">
         <v>8606849.24</v>
       </c>
-      <c r="G52" t="s" s="7">
+      <c r="G52" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H52" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s" s="7">
+      <c r="H52" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="J52" t="s" s="7">
+      <c r="J52" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" ht="13.55" customHeight="1">
-      <c r="A53" s="6">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="13.550000000000002">
+      <c r="A53" s="10">
         <v>826417</v>
       </c>
-      <c r="B53" t="s" s="7">
+      <c r="B53" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C53" t="s" s="7">
+      <c r="C53" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D53" t="s" s="7">
+      <c r="D53" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="12">
         <v>74257768.75</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="12">
         <v>16917242.46</v>
       </c>
-      <c r="G53" t="s" s="7">
+      <c r="G53" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H53" t="s" s="7">
+      <c r="H53" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I53" t="s" s="7">
+      <c r="I53" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="J53" t="s" s="7">
+      <c r="J53" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" ht="13.55" customHeight="1">
-      <c r="A54" s="6">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="13.550000000000002">
+      <c r="A54" s="10">
         <v>826589</v>
       </c>
-      <c r="B54" t="s" s="7">
+      <c r="B54" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C54" t="s" s="7">
+      <c r="C54" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D54" t="s" s="7">
+      <c r="D54" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="12">
         <v>126801021.86</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="12">
         <v>29382452.24</v>
       </c>
-      <c r="G54" t="s" s="7">
+      <c r="G54" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H54" t="s" s="7">
+      <c r="H54" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I54" t="s" s="7">
+      <c r="I54" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J54" t="s" s="7">
+      <c r="J54" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" ht="13.55" customHeight="1">
-      <c r="A55" s="6">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="13.550000000000002">
+      <c r="A55" s="10">
         <v>783162</v>
       </c>
-      <c r="B55" t="s" s="7">
+      <c r="B55" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C55" t="s" s="7">
+      <c r="C55" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D55" t="s" s="7">
+      <c r="D55" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="12">
         <v>22469913.75</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="12">
         <v>6726016.18</v>
       </c>
-      <c r="G55" t="s" s="7">
+      <c r="G55" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H55" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I55" t="s" s="7">
+      <c r="H55" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J55" t="s" s="7">
+      <c r="J55" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" ht="13.55" customHeight="1">
-      <c r="A56" s="6">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="13.550000000000002">
+      <c r="A56" s="10">
         <v>101007312</v>
       </c>
-      <c r="B56" t="s" s="7">
+      <c r="B56" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C56" t="s" s="7">
+      <c r="C56" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D56" t="s" s="7">
+      <c r="D56" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="14">
         <v>1999835</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="14">
         <v>1999835</v>
       </c>
-      <c r="G56" t="s" s="7">
+      <c r="G56" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H56" t="s" s="7">
+      <c r="H56" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I56" t="s" s="7">
+      <c r="I56" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="J56" t="s" s="7">
+      <c r="J56" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" ht="13.55" customHeight="1">
-      <c r="A57" s="6">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="13.550000000000002">
+      <c r="A57" s="10">
         <v>876925</v>
       </c>
-      <c r="B57" t="s" s="7">
+      <c r="B57" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C57" t="s" s="7">
+      <c r="C57" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D57" t="s" s="7">
+      <c r="D57" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="12">
         <v>40584497.04</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="12">
         <v>11846230.27</v>
       </c>
-      <c r="G57" t="s" s="7">
+      <c r="G57" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H57" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I57" t="s" s="7">
+      <c r="H57" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="J57" t="s" s="7">
+      <c r="J57" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" ht="13.55" customHeight="1">
-      <c r="A58" s="6">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="13.550000000000002">
+      <c r="A58" s="10">
         <v>830847</v>
       </c>
-      <c r="B58" t="s" s="7">
+      <c r="B58" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C58" t="s" s="7">
+      <c r="C58" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D58" t="s" s="7">
+      <c r="D58" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="12">
         <v>499626.25</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="12">
         <v>499626.25</v>
       </c>
-      <c r="G58" t="s" s="7">
+      <c r="G58" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="H58" t="s" s="7">
+      <c r="H58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I58" t="s" s="7">
+      <c r="I58" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="J58" t="s" s="7">
+      <c r="J58" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" ht="13.55" customHeight="1">
-      <c r="A59" s="6">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="13.550000000000002">
+      <c r="A59" s="10">
         <v>737479</v>
       </c>
-      <c r="B59" t="s" s="7">
+      <c r="B59" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C59" t="s" s="7">
+      <c r="C59" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D59" t="s" s="7">
+      <c r="D59" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="12">
         <v>132778302.32</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="12">
         <v>28339999.24</v>
       </c>
-      <c r="G59" t="s" s="7">
+      <c r="G59" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H59" t="s" s="7">
+      <c r="H59" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I59" t="s" s="7">
+      <c r="I59" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="J59" t="s" s="7">
+      <c r="J59" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" ht="13.55" customHeight="1">
-      <c r="A60" s="6">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="13.550000000000002">
+      <c r="A60" s="10">
         <v>662322</v>
       </c>
-      <c r="B60" t="s" s="7">
+      <c r="B60" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C60" t="s" s="7">
+      <c r="C60" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D60" t="s" s="7">
+      <c r="D60" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="12">
         <v>4487117.5</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="14">
         <v>1819212</v>
       </c>
-      <c r="G60" t="s" s="7">
+      <c r="G60" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H60" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I60" t="s" s="7">
+      <c r="H60" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="J60" t="s" s="7">
+      <c r="J60" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" ht="13.55" customHeight="1">
-      <c r="A61" s="6">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="13.550000000000002">
+      <c r="A61" s="10">
         <v>692519</v>
       </c>
-      <c r="B61" t="s" s="7">
+      <c r="B61" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C61" t="s" s="7">
+      <c r="C61" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D61" t="s" s="7">
+      <c r="D61" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="14">
         <v>38296264</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="12">
         <v>12038776.58</v>
       </c>
-      <c r="G61" t="s" s="7">
+      <c r="G61" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="H61" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I61" t="s" s="7">
+      <c r="H61" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="J61" t="s" s="7">
+      <c r="J61" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" ht="13.55" customHeight="1">
-      <c r="A62" s="6">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="13.550000000000002">
+      <c r="A62" s="10">
         <v>101007254</v>
       </c>
-      <c r="B62" t="s" s="7">
+      <c r="B62" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C62" t="s" s="7">
+      <c r="C62" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D62" t="s" s="7">
+      <c r="D62" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="12">
         <v>107340233.75</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="12">
         <v>24855413.5</v>
       </c>
-      <c r="G62" t="s" s="7">
+      <c r="G62" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H62" t="s" s="7">
+      <c r="H62" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I62" t="s" s="7">
+      <c r="I62" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="J62" t="s" s="7">
+      <c r="J62" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" ht="13.55" customHeight="1">
-      <c r="A63" s="6">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="13.550000000000002">
+      <c r="A63" s="10">
         <v>783247</v>
       </c>
-      <c r="B63" t="s" s="7">
+      <c r="B63" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C63" t="s" s="7">
+      <c r="C63" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D63" t="s" s="7">
+      <c r="D63" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="12">
         <v>121116315.26</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="12">
         <v>28192938.27</v>
       </c>
-      <c r="G63" t="s" s="7">
+      <c r="G63" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H63" t="s" s="7">
+      <c r="H63" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I63" t="s" s="7">
+      <c r="I63" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="J63" t="s" s="7">
+      <c r="J63" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" ht="13.55" customHeight="1">
-      <c r="A64" s="6">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="13.550000000000002">
+      <c r="A64" s="10">
         <v>692522</v>
       </c>
-      <c r="B64" t="s" s="7">
+      <c r="B64" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C64" t="s" s="7">
+      <c r="C64" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D64" t="s" s="7">
+      <c r="D64" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="14">
         <v>149882181</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="12">
         <v>28364017.53</v>
       </c>
-      <c r="G64" t="s" s="7">
+      <c r="G64" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H64" t="s" s="7">
+      <c r="H64" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I64" t="s" s="7">
+      <c r="I64" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="J64" t="s" s="7">
+      <c r="J64" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" ht="13.55" customHeight="1">
-      <c r="A65" s="6">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="13.550000000000002">
+      <c r="A65" s="10">
         <v>662133</v>
       </c>
-      <c r="B65" t="s" s="7">
+      <c r="B65" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C65" t="s" s="7">
+      <c r="C65" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D65" t="s" s="7">
+      <c r="D65" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="12">
         <v>90254494.23</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="12">
         <v>19196548.95</v>
       </c>
-      <c r="G65" t="s" s="7">
+      <c r="G65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H65" t="s" s="7">
+      <c r="H65" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I65" t="s" s="7">
+      <c r="I65" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="J65" t="s" s="7">
+      <c r="J65" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" ht="13.55" customHeight="1">
-      <c r="A66" s="6">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="13.550000000000002">
+      <c r="A66" s="10">
         <v>662338</v>
       </c>
-      <c r="B66" t="s" s="7">
+      <c r="B66" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C66" t="s" s="7">
+      <c r="C66" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D66" t="s" s="7">
+      <c r="D66" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="12">
         <v>177731624.33</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="12">
         <v>31816386.93</v>
       </c>
-      <c r="G66" t="s" s="7">
+      <c r="G66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H66" t="s" s="7">
+      <c r="H66" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I66" t="s" s="7">
+      <c r="I66" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="J66" t="s" s="7">
+      <c r="J66" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" ht="13.55" customHeight="1">
-      <c r="A67" s="6">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="13.550000000000002">
+      <c r="A67" s="10">
         <v>661796</v>
       </c>
-      <c r="B67" t="s" s="7">
+      <c r="B67" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C67" t="s" s="7">
+      <c r="C67" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D67" t="s" s="7">
+      <c r="D67" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="12">
         <v>38905159.61</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="12">
         <v>11096414.52</v>
       </c>
-      <c r="G67" t="s" s="7">
+      <c r="G67" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H67" t="s" s="7">
+      <c r="H67" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I67" t="s" s="7">
+      <c r="I67" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="J67" t="s" s="7">
+      <c r="J67" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" ht="13.55" customHeight="1">
-      <c r="A68" s="6">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="13.550000000000002">
+      <c r="A68" s="10">
         <v>737465</v>
       </c>
-      <c r="B68" t="s" s="7">
+      <c r="B68" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C68" t="s" s="7">
+      <c r="C68" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D68" t="s" s="7">
+      <c r="D68" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="12">
         <v>10854745.94</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="12">
         <v>2614618.01</v>
       </c>
-      <c r="G68" t="s" s="7">
+      <c r="G68" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H68" t="s" s="7">
+      <c r="H68" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I68" t="s" s="7">
+      <c r="I68" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="J68" t="s" s="7">
+      <c r="J68" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" ht="13.55" customHeight="1">
-      <c r="A69" s="6">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="13.550000000000002">
+      <c r="A69" s="10">
         <v>783176</v>
       </c>
-      <c r="B69" t="s" s="7">
+      <c r="B69" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C69" t="s" s="7">
+      <c r="C69" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D69" t="s" s="7">
+      <c r="D69" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="14">
         <v>95048222</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F69" s="12">
         <v>24112728.03</v>
       </c>
-      <c r="G69" t="s" s="7">
+      <c r="G69" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H69" t="s" s="7">
+      <c r="H69" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I69" t="s" s="7">
+      <c r="I69" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="J69" t="s" s="7">
+      <c r="J69" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" ht="13.55" customHeight="1">
-      <c r="A70" s="6">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="13.550000000000002">
+      <c r="A70" s="10">
         <v>826588</v>
       </c>
-      <c r="B70" t="s" s="7">
+      <c r="B70" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C70" t="s" s="7">
+      <c r="C70" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D70" t="s" s="7">
+      <c r="D70" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="12">
         <v>34448397.16</v>
       </c>
-      <c r="F70" s="8">
-        <v>8561598.710000001</v>
-      </c>
-      <c r="G70" t="s" s="7">
+      <c r="F70" s="12">
+        <v>8561598.71</v>
+      </c>
+      <c r="G70" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H70" t="s" s="7">
+      <c r="H70" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I70" t="s" s="7">
+      <c r="I70" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="J70" t="s" s="7">
+      <c r="J70" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" ht="13.55" customHeight="1">
-      <c r="A71" s="6">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="13.550000000000002">
+      <c r="A71" s="10">
         <v>692529</v>
       </c>
-      <c r="B71" t="s" s="7">
+      <c r="B71" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C71" t="s" s="7">
+      <c r="C71" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D71" t="s" s="7">
+      <c r="D71" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="12">
         <v>11513398.19</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="14">
         <v>3777298</v>
       </c>
-      <c r="G71" t="s" s="7">
+      <c r="G71" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="H71" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I71" t="s" s="7">
+      <c r="H71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J71" t="s" s="7">
+      <c r="J71" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" ht="13.55" customHeight="1">
-      <c r="A72" s="6">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="13.550000000000002">
+      <c r="A72" s="10">
         <v>101007237</v>
       </c>
-      <c r="B72" t="s" s="7">
+      <c r="B72" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C72" t="s" s="7">
+      <c r="C72" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D72" t="s" s="7">
+      <c r="D72" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E72" s="8">
-        <v>89274761.76000001</v>
-      </c>
-      <c r="F72" s="8">
+      <c r="E72" s="12">
+        <v>89274761.76</v>
+      </c>
+      <c r="F72" s="12">
         <v>20738434.68</v>
       </c>
-      <c r="G72" t="s" s="7">
+      <c r="G72" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H72" t="s" s="7">
+      <c r="H72" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I72" t="s" s="7">
+      <c r="I72" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="J72" t="s" s="7">
+      <c r="J72" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="73" ht="13.55" customHeight="1">
-      <c r="A73" s="6">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="13.550000000000002">
+      <c r="A73" s="10">
         <v>662107</v>
       </c>
-      <c r="B73" t="s" s="7">
+      <c r="B73" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C73" t="s" s="7">
+      <c r="C73" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D73" t="s" s="7">
+      <c r="D73" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="12">
         <v>17168626.68</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="12">
         <v>6389046.38</v>
       </c>
-      <c r="G73" t="s" s="7">
+      <c r="G73" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H73" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I73" t="s" s="7">
+      <c r="H73" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="J73" t="s" s="7">
+      <c r="J73" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="74" ht="13.55" customHeight="1">
-      <c r="A74" s="6">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="13.550000000000002">
+      <c r="A74" s="10">
         <v>662175</v>
       </c>
-      <c r="B74" t="s" s="7">
+      <c r="B74" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C74" t="s" s="7">
+      <c r="C74" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D74" t="s" s="7">
+      <c r="D74" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="12">
         <v>99399264.13</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="12">
         <v>25796579.34</v>
       </c>
-      <c r="G74" t="s" s="7">
+      <c r="G74" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H74" t="s" s="7">
+      <c r="H74" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I74" t="s" s="7">
+      <c r="I74" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J74" t="s" s="7">
+      <c r="J74" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="75" ht="13.55" customHeight="1">
-      <c r="A75" s="6">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="13.550000000000002">
+      <c r="A75" s="10">
         <v>692474</v>
       </c>
-      <c r="B75" t="s" s="7">
+      <c r="B75" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C75" t="s" s="7">
+      <c r="C75" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D75" t="s" s="7">
+      <c r="D75" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="12">
         <v>20274885.08</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75" s="12">
         <v>6178242.9</v>
       </c>
-      <c r="G75" t="s" s="7">
+      <c r="G75" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H75" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s" s="7">
+      <c r="H75" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="J75" t="s" s="7">
+      <c r="J75" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="76" ht="13.55" customHeight="1">
-      <c r="A76" s="6">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="13.550000000000002">
+      <c r="A76" s="10">
         <v>101007350</v>
       </c>
-      <c r="B76" t="s" s="7">
+      <c r="B76" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C76" t="s" s="7">
+      <c r="C76" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D76" t="s" s="7">
+      <c r="D76" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="12">
         <v>22968348.75</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76" s="12">
         <v>6898683.84</v>
       </c>
-      <c r="G76" t="s" s="7">
+      <c r="G76" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H76" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I76" t="s" s="7">
+      <c r="H76" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="J76" t="s" s="7">
+      <c r="J76" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" ht="13.55" customHeight="1">
-      <c r="A77" s="6">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="13.550000000000002">
+      <c r="A77" s="10">
         <v>826276</v>
       </c>
-      <c r="B77" t="s" s="7">
+      <c r="B77" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C77" t="s" s="7">
+      <c r="C77" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D77" t="s" s="7">
+      <c r="D77" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="12">
         <v>53034047.4</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="14">
         <v>12970979</v>
       </c>
-      <c r="G77" t="s" s="7">
+      <c r="G77" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H77" t="s" s="7">
+      <c r="H77" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I77" t="s" s="7">
+      <c r="I77" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="J77" t="s" s="7">
+      <c r="J77" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" ht="13.55" customHeight="1">
-      <c r="A78" s="6">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="13.550000000000002">
+      <c r="A78" s="10">
         <v>875999</v>
       </c>
-      <c r="B78" t="s" s="7">
+      <c r="B78" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C78" t="s" s="7">
+      <c r="C78" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D78" t="s" s="7">
+      <c r="D78" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E78" s="8">
-        <v>91308682.34999999</v>
-      </c>
-      <c r="F78" s="8">
+      <c r="E78" s="12">
+        <v>91308682.35</v>
+      </c>
+      <c r="F78" s="12">
         <v>20815609.73</v>
       </c>
-      <c r="G78" t="s" s="7">
+      <c r="G78" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H78" t="s" s="7">
+      <c r="H78" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I78" t="s" s="7">
+      <c r="I78" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="J78" t="s" s="7">
+      <c r="J78" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" ht="13.55" customHeight="1">
-      <c r="A79" s="6">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="13.550000000000002">
+      <c r="A79" s="10">
         <v>876852</v>
       </c>
-      <c r="B79" t="s" s="7">
+      <c r="B79" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C79" t="s" s="7">
+      <c r="C79" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="D79" t="s" s="7">
+      <c r="D79" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="12">
         <v>25834504.55</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79" s="12">
         <v>7672476.35</v>
       </c>
-      <c r="G79" t="s" s="7">
+      <c r="G79" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H79" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I79" t="s" s="7">
+      <c r="H79" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="J79" t="s" s="7">
+      <c r="J79" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" ht="13.55" customHeight="1">
-      <c r="A80" s="6">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="13.550000000000002">
+      <c r="A80" s="10">
         <v>783163</v>
       </c>
-      <c r="B80" t="s" s="7">
+      <c r="B80" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C80" t="s" s="7">
+      <c r="C80" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D80" t="s" s="7">
+      <c r="D80" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="12">
         <v>47021894.54</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="12">
         <v>10896521.1</v>
       </c>
-      <c r="G80" t="s" s="7">
+      <c r="G80" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H80" t="s" s="7">
+      <c r="H80" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I80" t="s" s="7">
+      <c r="I80" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="J80" t="s" s="7">
+      <c r="J80" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" ht="13.55" customHeight="1">
-      <c r="A81" s="6">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="13.550000000000002">
+      <c r="A81" s="10">
         <v>783274</v>
       </c>
-      <c r="B81" t="s" s="7">
+      <c r="B81" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C81" t="s" s="7">
+      <c r="C81" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="D81" t="s" s="7">
+      <c r="D81" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="12">
         <v>20568990.85</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F81" s="12">
         <v>5988277.67</v>
       </c>
-      <c r="G81" t="s" s="7">
+      <c r="G81" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H81" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I81" t="s" s="7">
+      <c r="H81" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="J81" t="s" s="7">
+      <c r="J81" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" ht="13.55" customHeight="1">
-      <c r="A82" s="6">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="13.550000000000002">
+      <c r="A82" s="10">
         <v>737475</v>
       </c>
-      <c r="B82" t="s" s="7">
+      <c r="B82" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C82" t="s" s="7">
+      <c r="C82" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D82" t="s" s="7">
+      <c r="D82" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="12">
         <v>15512787.89</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82" s="12">
         <v>4612947.71</v>
       </c>
-      <c r="G82" t="s" s="7">
+      <c r="G82" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H82" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I82" t="s" s="7">
+      <c r="H82" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="J82" t="s" s="7">
+      <c r="J82" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="83" ht="13.55" customHeight="1">
-      <c r="A83" s="6">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="13.550000000000002">
+      <c r="A83" s="10">
         <v>101007281</v>
       </c>
-      <c r="B83" t="s" s="7">
+      <c r="B83" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C83" t="s" s="7">
+      <c r="C83" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D83" t="s" s="7">
+      <c r="D83" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="12">
         <v>41918393.75</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F83" s="12">
         <v>11936415.58</v>
       </c>
-      <c r="G83" t="s" s="7">
+      <c r="G83" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H83" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I83" t="s" s="7">
+      <c r="H83" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="J83" t="s" s="7">
+      <c r="J83" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="84" ht="13.55" customHeight="1">
-      <c r="A84" s="6">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="13.550000000000002">
+      <c r="A84" s="10">
         <v>826131</v>
       </c>
-      <c r="B84" t="s" s="7">
+      <c r="B84" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C84" t="s" s="7">
+      <c r="C84" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D84" t="s" s="7">
+      <c r="D84" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84" s="14">
         <v>28194740</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F84" s="12">
         <v>8192593.44</v>
       </c>
-      <c r="G84" t="s" s="7">
+      <c r="G84" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H84" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I84" t="s" s="7">
+      <c r="H84" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="J84" t="s" s="7">
+      <c r="J84" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" ht="13.55" customHeight="1">
-      <c r="A85" s="6">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="13.550000000000002">
+      <c r="A85" s="10">
         <v>692466</v>
       </c>
-      <c r="B85" t="s" s="7">
+      <c r="B85" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C85" t="s" s="7">
+      <c r="C85" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="D85" t="s" s="7">
+      <c r="D85" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="12">
         <v>61919643.75</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="12">
         <v>12227386.14</v>
       </c>
-      <c r="G85" t="s" s="7">
+      <c r="G85" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="H85" t="s" s="7">
+      <c r="H85" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I85" t="s" s="7">
+      <c r="I85" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="J85" t="s" s="7">
+      <c r="J85" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="86" ht="13.55" customHeight="1">
-      <c r="A86" s="6">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="13.550000000000002">
+      <c r="A86" s="10">
         <v>692482</v>
       </c>
-      <c r="B86" t="s" s="7">
+      <c r="B86" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C86" t="s" s="7">
+      <c r="C86" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="D86" t="s" s="7">
+      <c r="D86" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="12">
         <v>64564262.24</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="12">
         <v>16677344.36</v>
       </c>
-      <c r="G86" t="s" s="7">
+      <c r="G86" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="H86" t="s" s="7">
+      <c r="H86" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I86" t="s" s="7">
+      <c r="I86" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="J86" t="s" s="7">
+      <c r="J86" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="87" ht="13.55" customHeight="1">
-      <c r="A87" s="6">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="13.550000000000002">
+      <c r="A87" s="10">
         <v>737453</v>
       </c>
-      <c r="B87" t="s" s="7">
+      <c r="B87" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C87" t="s" s="7">
+      <c r="C87" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D87" t="s" s="7">
+      <c r="D87" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="12">
         <v>17027716.68</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F87" s="12">
         <v>5018274.06</v>
       </c>
-      <c r="G87" t="s" s="7">
+      <c r="G87" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H87" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I87" t="s" s="7">
+      <c r="H87" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="J87" t="s" s="7">
+      <c r="J87" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="88" ht="13.55" customHeight="1">
-      <c r="A88" s="6">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="13.550000000000002">
+      <c r="A88" s="10">
         <v>783174</v>
       </c>
-      <c r="B88" t="s" s="7">
+      <c r="B88" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C88" t="s" s="7">
+      <c r="C88" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="D88" t="s" s="7">
+      <c r="D88" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="12">
         <v>41367954.09</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="12">
         <v>11798310.94</v>
       </c>
-      <c r="G88" t="s" s="7">
+      <c r="G88" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H88" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I88" t="s" s="7">
+      <c r="H88" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J88" t="s" s="7">
+      <c r="J88" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="89" ht="13.55" customHeight="1">
-      <c r="A89" s="6">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="13.550000000000002">
+      <c r="A89" s="10">
         <v>692527</v>
       </c>
-      <c r="B89" t="s" s="7">
+      <c r="B89" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C89" t="s" s="7">
+      <c r="C89" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="D89" t="s" s="7">
+      <c r="D89" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="12">
         <v>23055897.5</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F89" s="12">
         <v>6463826.63</v>
       </c>
-      <c r="G89" t="s" s="7">
+      <c r="G89" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="H89" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I89" t="s" s="7">
+      <c r="H89" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="J89" t="s" s="7">
+      <c r="J89" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="90" ht="13.55" customHeight="1">
-      <c r="A90" s="6">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="13.550000000000002">
+      <c r="A90" s="10">
         <v>826600</v>
       </c>
-      <c r="B90" t="s" s="7">
+      <c r="B90" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C90" t="s" s="7">
+      <c r="C90" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D90" t="s" s="7">
+      <c r="D90" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E90" s="8">
-        <v>87947734.06999999</v>
-      </c>
-      <c r="F90" s="8">
+      <c r="E90" s="12">
+        <v>87947734.07</v>
+      </c>
+      <c r="F90" s="12">
         <v>21342431.13</v>
       </c>
-      <c r="G90" t="s" s="7">
+      <c r="G90" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H90" t="s" s="7">
+      <c r="H90" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I90" t="s" s="7">
+      <c r="I90" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="J90" t="s" s="7">
+      <c r="J90" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="91" ht="13.55" customHeight="1">
-      <c r="A91" s="6">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="13.550000000000002">
+      <c r="A91" s="10">
         <v>826392</v>
       </c>
-      <c r="B91" t="s" s="7">
+      <c r="B91" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C91" t="s" s="7">
+      <c r="C91" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="D91" t="s" s="7">
+      <c r="D91" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="12">
         <v>48438216.26</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="12">
         <v>14093529.07</v>
       </c>
-      <c r="G91" t="s" s="7">
+      <c r="G91" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H91" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I91" t="s" s="7">
+      <c r="H91" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="J91" t="s" s="7">
+      <c r="J91" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="92" ht="13.55" customHeight="1">
-      <c r="A92" s="6">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="13.550000000000002">
+      <c r="A92" s="10">
         <v>876967</v>
       </c>
-      <c r="B92" t="s" s="7">
+      <c r="B92" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="C92" t="s" s="7">
+      <c r="C92" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="D92" t="s" s="7">
+      <c r="D92" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="12">
         <v>16331468.75</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="12">
         <v>4752312.26</v>
       </c>
-      <c r="G92" t="s" s="7">
+      <c r="G92" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H92" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I92" t="s" s="7">
+      <c r="H92" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="J92" t="s" s="7">
+      <c r="J92" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="93" ht="13.55" customHeight="1">
-      <c r="A93" s="6">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="13.550000000000002">
+      <c r="A93" s="10">
         <v>653933</v>
       </c>
-      <c r="B93" t="s" s="7">
+      <c r="B93" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C93" t="s" s="7">
+      <c r="C93" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="D93" t="s" s="7">
+      <c r="D93" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="12">
         <v>8173781.35</v>
       </c>
-      <c r="F93" s="8">
+      <c r="F93" s="12">
         <v>2060272.44</v>
       </c>
-      <c r="G93" t="s" s="7">
+      <c r="G93" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H93" t="s" s="7">
+      <c r="H93" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I93" t="s" s="7">
+      <c r="I93" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="J93" t="s" s="7">
+      <c r="J93" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="94" ht="13.55" customHeight="1">
-      <c r="A94" s="6">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="13.550000000000002">
+      <c r="A94" s="10">
         <v>692477</v>
       </c>
-      <c r="B94" t="s" s="7">
+      <c r="B94" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C94" t="s" s="7">
+      <c r="C94" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="D94" t="s" s="7">
+      <c r="D94" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="14">
         <v>33065895</v>
       </c>
-      <c r="F94" s="8">
+      <c r="F94" s="12">
         <v>10028062.32</v>
       </c>
-      <c r="G94" t="s" s="7">
+      <c r="G94" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H94" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I94" t="s" s="7">
+      <c r="H94" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="J94" t="s" s="7">
+      <c r="J94" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="95" ht="13.55" customHeight="1">
-      <c r="A95" s="6">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="13.550000000000002">
+      <c r="A95" s="10">
         <v>737454</v>
       </c>
-      <c r="B95" t="s" s="7">
+      <c r="B95" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="C95" t="s" s="7">
+      <c r="C95" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="D95" t="s" s="7">
+      <c r="D95" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="12">
         <v>42927595.86</v>
       </c>
-      <c r="F95" s="8">
+      <c r="F95" s="12">
         <v>12081281.69</v>
       </c>
-      <c r="G95" t="s" s="7">
+      <c r="G95" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H95" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I95" t="s" s="7">
+      <c r="H95" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="J95" t="s" s="7">
+      <c r="J95" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="96" ht="13.55" customHeight="1">
-      <c r="A96" s="6">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="13.550000000000002">
+      <c r="A96" s="10">
         <v>826655</v>
       </c>
-      <c r="B96" t="s" s="7">
+      <c r="B96" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C96" t="s" s="7">
+      <c r="C96" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="D96" t="s" s="7">
+      <c r="D96" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="12">
         <v>34527459.75</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F96" s="12">
         <v>10336358.49</v>
       </c>
-      <c r="G96" t="s" s="7">
+      <c r="G96" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H96" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="I96" t="s" s="7">
+      <c r="H96" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="J96" t="s" s="7">
+      <c r="J96" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="97" ht="13.55" customHeight="1">
-      <c r="A97" s="6">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="13.550000000000002">
+      <c r="A97" s="10">
         <v>783127</v>
       </c>
-      <c r="B97" t="s" s="7">
+      <c r="B97" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C97" t="s" s="7">
+      <c r="C97" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="D97" t="s" s="7">
+      <c r="D97" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="12">
         <v>95601563.14</v>
       </c>
-      <c r="F97" s="8">
+      <c r="F97" s="12">
         <v>23077171.98</v>
       </c>
-      <c r="G97" t="s" s="7">
+      <c r="G97" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H97" t="s" s="7">
+      <c r="H97" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I97" t="s" s="7">
+      <c r="I97" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="J97" t="s" s="7">
+      <c r="J97" s="13" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>